--- a/data/DRI_IOM_V2.xlsx
+++ b/data/DRI_IOM_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-31220" yWindow="-4320" windowWidth="24080" windowHeight="14600" activeTab="6"/>
+    <workbookView xWindow="3760" yWindow="2380" windowWidth="24080" windowHeight="14600" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="115">
   <si>
     <t>Children</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>vit_b12_µg</t>
+  </si>
+  <si>
+    <t>folate_µg</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,6 +485,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -940,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -951,77 +966,77 @@
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="O1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2568,7 +2583,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2578,56 +2593,56 @@
     <col min="14" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3808,7 +3823,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3818,59 +3833,59 @@
     <col min="17" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5117,7 +5132,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5130,35 +5145,35 @@
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6798,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6807,59 +6822,59 @@
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7789,7 +7804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
